--- a/poi-excel狂神观众统计表07.xlsx
+++ b/poi-excel狂神观众统计表07.xlsx
@@ -20,7 +20,7 @@
     <t>统计日期</t>
   </si>
   <si>
-    <t>2020-05-17 17:55:08</t>
+    <t>2020-05-17 18:22:51</t>
   </si>
 </sst>
 </file>
